--- a/REVER_DailyTracker_20201012.xlsx
+++ b/REVER_DailyTracker_20201012.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eswar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\October\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084720DA-8F41-4C4A-91D2-8F243264C712}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F535514-CBC0-4E4C-94BF-965FD7E9D4F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="49">
   <si>
     <t>Task</t>
   </si>
@@ -130,55 +130,10 @@
     <t>Week off</t>
   </si>
   <si>
-    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site &amp; Regression testing on B2C app and Hayaai site</t>
-  </si>
-  <si>
     <t>Soniya</t>
   </si>
   <si>
-    <t>creating Setup file</t>
-  </si>
-  <si>
-    <t>Layout Designing</t>
-  </si>
-  <si>
-    <t>Application- Login page and Front end  sample Layout design. Sample completed</t>
-  </si>
-  <si>
-    <t>Application- Front end  sample 2nd Layout design. Sample completed</t>
-  </si>
-  <si>
-    <t>QMVAR , Hayaai</t>
-  </si>
-  <si>
-    <t>Application- login design and Hayaai Flyer design</t>
-  </si>
-  <si>
-    <t>Hayaai</t>
-  </si>
-  <si>
-    <t>Two sample Flyer design</t>
-  </si>
-  <si>
-    <t>DRS Count - Saw Discount changes and Issue</t>
-  </si>
-  <si>
-    <t>DRS Count - Saw Discount Summary &amp; Details</t>
-  </si>
-  <si>
-    <t>DRS - Daily Revenue</t>
-  </si>
-  <si>
-    <t>1) Flyer design completed                                                                                       2) ID card created                                                                            3) Name card created</t>
-  </si>
-  <si>
-    <t>Emplogin</t>
-  </si>
-  <si>
-    <t>Adding assests Detatils</t>
-  </si>
-  <si>
-    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site, Retesting on B2B app &amp; Regression testing on B2C app and Hayaai site</t>
+    <t>Creating Setup file</t>
   </si>
   <si>
     <t>1. DRS-Weekly correction received and completed</t>
@@ -206,12 +161,12 @@
     <t>RPA Sony</t>
   </si>
   <si>
+    <t>1. method created to delete all specific pattern files before downloading the Sony daily scheduling report</t>
+  </si>
+  <si>
     <t xml:space="preserve">For Sony_Daily_SchedulingReport task, </t>
   </si>
   <si>
-    <t>1. method created to delete all specific pattern files before downloading the Sony daily scheduling report</t>
-  </si>
-  <si>
     <t>2. method created to delete all specific pattern files before creating CSV files  to upload from  temp folder for the task Sony daily scheduling report</t>
   </si>
   <si>
@@ -221,10 +176,13 @@
     <t>Customization work is in progress for Sony daily task of scheduling report</t>
   </si>
   <si>
-    <t>Analysis - File Upload - Development</t>
-  </si>
-  <si>
-    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site, Retesting &amp; Regression testing on B2C app and Hayaai site</t>
+    <t>2. Customization of Sony Schedule Report of Monthly task is work in progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Customization of Sony Schedule Report of Daily task has been completed </t>
+  </si>
+  <si>
+    <t>Updated codes has been shared</t>
   </si>
 </sst>
 </file>
@@ -234,7 +192,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,18 +234,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -393,7 +345,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -477,41 +429,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -827,21 +774,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="78.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="82.6640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -854,7 +801,7 @@
       <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="49" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -865,7 +812,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -886,7 +833,7 @@
       </c>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:7" ht="30">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -902,245 +849,201 @@
       <c r="E3" s="32">
         <v>0.7</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="45">
         <v>44109</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="28">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D4" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="46">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="28">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A6">
+      <c r="D5" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="46">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A6" s="47">
         <v>4</v>
       </c>
-      <c r="B6" s="51">
+      <c r="B6" s="45">
         <v>44109</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="28">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D6" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="46">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7" s="52"/>
-      <c r="E7"/>
-      <c r="F7"/>
+      <c r="D7" s="50"/>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="51">
+      <c r="A8" s="47">
+        <v>5</v>
+      </c>
+      <c r="B8" s="45">
         <v>44110</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="28">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="D8" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="46">
+        <v>1</v>
+      </c>
+      <c r="F8" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="28">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D9" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="46">
+        <v>1</v>
+      </c>
+      <c r="F9" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="45">
         <v>44110</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="28">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D10" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="46">
+        <v>1</v>
+      </c>
+      <c r="F10" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="28">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="D11" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="46">
+        <v>1</v>
+      </c>
+      <c r="F11" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12" s="52"/>
-      <c r="E12"/>
-      <c r="F12"/>
+      <c r="D12" s="50"/>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="A13">
+      <c r="A13" s="4">
         <v>7</v>
       </c>
-      <c r="B13" s="51">
+      <c r="B13" s="45">
         <v>44111</v>
       </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="28">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15"/>
-      <c r="F15"/>
+      <c r="C13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="D14" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="46">
+        <v>1</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="D15" s="50" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16" s="52"/>
-      <c r="E16"/>
-      <c r="F16"/>
-    </row>
-    <row r="17" spans="1:6" s="4" customFormat="1">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17" s="52"/>
-      <c r="E17"/>
-      <c r="F17"/>
-    </row>
-    <row r="18" spans="1:6" s="4" customFormat="1" ht="30">
-      <c r="A18">
+      <c r="D16" s="50"/>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1">
+      <c r="D17" s="50"/>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1">
+      <c r="A18" s="4">
         <v>8</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="45">
         <v>44112</v>
       </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="28">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="4" customFormat="1">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19" s="52"/>
-      <c r="E19"/>
-      <c r="F19"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="C18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="46">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1">
+      <c r="D19" s="50"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>9</v>
       </c>
-      <c r="B20" s="51">
+      <c r="B20" s="52">
         <v>44113</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>45</v>
       </c>
       <c r="E20" s="28">
         <v>0.6</v>
@@ -1149,36 +1052,67 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="D21" s="52"/>
-    </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30" s="52">
+        <v>44116</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="28">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="D31" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1195,15 +1129,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1306,15 +1240,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1413,18 +1347,18 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1493,87 +1427,39 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="33">
-        <v>44109</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>5</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="33">
-        <v>44110</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>3</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="33">
-        <v>44111</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>3</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="33">
-        <v>44112</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>3</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1">
@@ -1736,15 +1622,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1844,18 +1730,18 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1902,132 +1788,12 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="26.45" customHeight="1">
-      <c r="A3" s="20">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21">
-        <v>44109</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="28.15" customHeight="1">
-      <c r="A4" s="20">
-        <v>3</v>
-      </c>
-      <c r="B4" s="21">
-        <v>44110</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="22">
-        <v>1</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="25.9" customHeight="1">
-      <c r="A5" s="20">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21">
-        <v>44111</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="F5" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="25.9" customHeight="1">
-      <c r="A6" s="20">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21">
-        <v>44112</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="48" customHeight="1">
-      <c r="A7" s="20">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21">
-        <v>44113</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="22">
-        <v>1</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="25.9" customHeight="1">
-      <c r="A8" s="20">
-        <v>7</v>
-      </c>
-      <c r="B8" s="21">
-        <v>44116</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="22">
-        <v>0.3</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
     <row r="9" spans="1:7" s="4" customFormat="1"/>
     <row r="10" spans="1:7" s="4" customFormat="1"/>
     <row r="11" spans="1:7" s="4" customFormat="1"/>
@@ -2079,15 +1845,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2190,15 +1956,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2224,7 +1990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="28.8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2312,18 +2078,18 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -2391,7 +2157,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2402,11 +2168,11 @@
       <c r="D4" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2417,11 +2183,11 @@
       <c r="D5" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1">
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2432,11 +2198,11 @@
       <c r="D6" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1">
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2444,202 +2210,60 @@
         <v>44109</v>
       </c>
       <c r="C7" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="E7" s="39">
         <v>0.5</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="31">
-        <v>44110</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" s="31">
-        <v>44111</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="1">
-        <v>5</v>
-      </c>
-      <c r="B10" s="31">
-        <v>44112</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11" s="1">
-        <v>5</v>
-      </c>
-      <c r="B11" s="31">
-        <v>44113</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="1:7" s="4" customFormat="1">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="B23" s="46" t="s">
+    <row r="23" spans="2:3">
+      <c r="B23" s="43" t="s">
         <v>3</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="48"/>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="43" t="s">
+    <row r="25" spans="2:3">
+      <c r="B25" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="B26" s="49"/>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>10</v>
       </c>
@@ -2658,15 +2282,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2765,19 +2389,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2803,7 +2427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45">
+    <row r="2" spans="1:7" ht="43.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2835,9 +2459,9 @@
       <c r="D3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
@@ -2850,9 +2474,9 @@
       <c r="D4" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
@@ -2865,11 +2489,11 @@
       <c r="D5" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-    </row>
-    <row r="6" spans="1:7" ht="45">
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:7" ht="43.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2882,162 +2506,22 @@
       <c r="D6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="31">
-        <v>44110</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="31">
-        <v>44111</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="31">
-        <v>44112</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="31">
-        <v>44113</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11" s="13">
-        <v>10</v>
-      </c>
-      <c r="B11" s="31">
-        <v>44114</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="31">
-        <v>44115</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A13" s="13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="31">
-        <v>44116</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
+      <c r="E6" s="39">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
     <row r="15" spans="1:7" s="4" customFormat="1"/>
     <row r="16" spans="1:7" s="4" customFormat="1"/>
     <row r="17" spans="2:3" s="4" customFormat="1"/>

--- a/REVER_DailyTracker_20201012.xlsx
+++ b/REVER_DailyTracker_20201012.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\October\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F535514-CBC0-4E4C-94BF-965FD7E9D4F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA2D830-E9F5-454E-904B-BA5DC4211B20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="59">
   <si>
     <t>Task</t>
   </si>
@@ -183,6 +183,40 @@
   </si>
   <si>
     <t>Updated codes has been shared</t>
+  </si>
+  <si>
+    <t>QMVAR-RPA</t>
+  </si>
+  <si>
+    <t>InvoiceUpdate IW/OW error correction</t>
+  </si>
+  <si>
+    <t>HAYAAI-B2B</t>
+  </si>
+  <si>
+    <t>New API for inserting job sheet details for Pickup</t>
+  </si>
+  <si>
+    <t>wip</t>
+  </si>
+  <si>
+    <t>Correction Job Details API to get Pickup Ack information</t>
+  </si>
+  <si>
+    <t>HAYAAI-B2C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In /instantfix/create and instantfix/update:
+Have added  "warranty_type":"OUT" ,so please pass this argument to this APIs,
+Also in Service request have updated job_id also now status would Requested instead of Job_in_progress,also Warranty_type is stored in RST_JOB
+Also in updateimei-&gt; API whatever parameters are passed it is stored in warranty information,the one as same as in add devices
+</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>Corrected Job details API and created new API for JobSheet.Also Created new API for technician reaching customer Place</t>
   </si>
 </sst>
 </file>
@@ -776,7 +810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+    <sheetView topLeftCell="E10" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -1618,8 +1652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1657,28 +1691,138 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43840</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33">
+        <v>43961</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="45">
+        <v>43992</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="46">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="45">
+        <v>44022</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="46">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="216">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="45">
+        <v>44053</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="46">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="45">
+        <v>44084</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="43.2">
+      <c r="A8" s="47">
+        <v>7</v>
+      </c>
+      <c r="B8" s="45">
+        <v>44175</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="9" spans="1:7" s="4" customFormat="1"/>
     <row r="10" spans="1:7" s="4" customFormat="1"/>
     <row r="11" spans="1:7" s="4" customFormat="1"/>

--- a/REVER_DailyTracker_20201012.xlsx
+++ b/REVER_DailyTracker_20201012.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA2D830-E9F5-454E-904B-BA5DC4211B20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35402A07-9511-4D30-98EB-0F3567D69930}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="62">
   <si>
     <t>Task</t>
   </si>
@@ -217,6 +217,15 @@
   </si>
   <si>
     <t>Corrected Job details API and created new API for JobSheet.Also Created new API for technician reaching customer Place</t>
+  </si>
+  <si>
+    <t>DRS Count - Saw Discount changes and Issue</t>
+  </si>
+  <si>
+    <t>DRS Count - Saw Discount Summary &amp; Details</t>
+  </si>
+  <si>
+    <t>DRS - Daily Revenue</t>
   </si>
 </sst>
 </file>
@@ -265,18 +274,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="8">
@@ -450,13 +459,10 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -493,6 +499,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -814,15 +823,15 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="82.6640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -835,7 +844,7 @@
       <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="48" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -846,7 +855,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -892,16 +901,16 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="44">
         <v>44109</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -909,30 +918,30 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="45">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
-      <c r="A6" s="47">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
+      <c r="A6" s="46">
         <v>4</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="44">
         <v>44109</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="45">
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -940,36 +949,36 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1">
-      <c r="D7" s="50"/>
+      <c r="D7" s="49"/>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="47">
-        <v>5</v>
-      </c>
-      <c r="B8" s="45">
+      <c r="A8" s="46">
+        <v>5</v>
+      </c>
+      <c r="B8" s="44">
         <v>44110</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="46">
-        <v>1</v>
-      </c>
-      <c r="F8" s="47" t="s">
+      <c r="E8" s="45">
+        <v>1</v>
+      </c>
+      <c r="F8" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="46">
-        <v>1</v>
-      </c>
-      <c r="F9" s="47" t="s">
+      <c r="E9" s="45">
+        <v>1</v>
+      </c>
+      <c r="F9" s="46" t="s">
         <v>5</v>
       </c>
     </row>
@@ -977,86 +986,86 @@
       <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="44">
         <v>44110</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="46">
-        <v>1</v>
-      </c>
-      <c r="F10" s="47" t="s">
+      <c r="E10" s="45">
+        <v>1</v>
+      </c>
+      <c r="F10" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="46">
-        <v>1</v>
-      </c>
-      <c r="F11" s="47" t="s">
+      <c r="E11" s="45">
+        <v>1</v>
+      </c>
+      <c r="F11" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="D12" s="50"/>
+      <c r="D12" s="49"/>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1">
       <c r="A13" s="4">
         <v>7</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="44">
         <v>44111</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="47" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="28.8">
-      <c r="D14" s="50" t="s">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="30">
+      <c r="D14" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="46">
-        <v>1</v>
-      </c>
-      <c r="F14" s="47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
-      <c r="D15" s="50" t="s">
+      <c r="E14" s="45">
+        <v>1</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="30">
+      <c r="D15" s="49" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1">
-      <c r="D16" s="50"/>
+      <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1">
-      <c r="D17" s="50"/>
+      <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1">
       <c r="A18" s="4">
         <v>8</v>
       </c>
-      <c r="B18" s="45">
+      <c r="B18" s="44">
         <v>44112</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="45">
         <v>1</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -1064,19 +1073,19 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1">
-      <c r="D19" s="50"/>
+      <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
         <v>9</v>
       </c>
-      <c r="B20" s="52">
+      <c r="B20" s="51">
         <v>44113</v>
       </c>
       <c r="C20" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="50" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="28">
@@ -1119,13 +1128,13 @@
       <c r="A30">
         <v>10</v>
       </c>
-      <c r="B30" s="52">
+      <c r="B30" s="51">
         <v>44116</v>
       </c>
       <c r="C30" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="50" t="s">
         <v>47</v>
       </c>
       <c r="E30" s="28">
@@ -1139,7 +1148,7 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="D31" s="51" t="s">
+      <c r="D31" s="50" t="s">
         <v>46</v>
       </c>
       <c r="E31" s="28">
@@ -1163,15 +1172,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1274,15 +1283,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1380,19 +1389,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1425,7 +1434,7 @@
       <c r="B2" s="33">
         <v>44105</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="52" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1434,7 +1443,7 @@
       <c r="E2" s="7">
         <v>1</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="34" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1"/>
@@ -1446,7 +1455,7 @@
       <c r="B3" s="33">
         <v>44105</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="52" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1455,63 +1464,135 @@
       <c r="E3" s="7">
         <v>1</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="34" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33">
+        <v>44109</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>5</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33">
+        <v>44110</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>3</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33">
+        <v>44111</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>3</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33">
+        <v>44112</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>3</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33">
+        <v>44113</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>3</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="33">
+        <v>44116</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>3</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1">
@@ -1652,19 +1733,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1736,7 +1817,7 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="44">
         <v>43992</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1745,7 +1826,7 @@
       <c r="D4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -1756,7 +1837,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="44">
         <v>44022</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1765,27 +1846,27 @@
       <c r="D5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="45">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="216">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="225">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="44">
         <v>44053</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="45">
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -1796,30 +1877,30 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="44">
         <v>44084</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="43.2">
-      <c r="A8" s="47">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="45">
+      <c r="A8" s="46">
         <v>7</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="44">
         <v>44175</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="45">
         <v>0.8</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="46" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1877,15 +1958,15 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1989,15 +2070,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2100,15 +2181,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2134,7 +2215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2225,15 +2306,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -2309,12 +2390,12 @@
         <v>44106</v>
       </c>
       <c r="C4" s="29"/>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
@@ -2324,12 +2405,12 @@
         <v>44107</v>
       </c>
       <c r="C5" s="29"/>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
@@ -2339,12 +2420,12 @@
         <v>44108</v>
       </c>
       <c r="C6" s="29"/>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
@@ -2359,13 +2440,13 @@
       <c r="D7" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="38">
         <v>0.5</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="40"/>
+      <c r="G7" s="39"/>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1"/>
     <row r="9" spans="1:7" s="4" customFormat="1"/>
@@ -2385,7 +2466,7 @@
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="42" t="s">
         <v>3</v>
       </c>
       <c r="C23" t="s">
@@ -2426,15 +2507,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2537,15 +2618,15 @@
       <selection activeCell="A3" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2571,7 +2652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2">
+    <row r="2" spans="1:7" ht="45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2584,13 +2665,13 @@
       <c r="D2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="36">
         <v>0.5</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="38"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
@@ -2600,12 +2681,12 @@
         <v>44106</v>
       </c>
       <c r="C3" s="29"/>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
@@ -2615,12 +2696,12 @@
         <v>44107</v>
       </c>
       <c r="C4" s="29"/>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
@@ -2630,14 +2711,14 @@
         <v>44108</v>
       </c>
       <c r="C5" s="29"/>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="1:7" ht="43.2">
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+    </row>
+    <row r="6" spans="1:7" ht="45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2650,13 +2731,13 @@
       <c r="D6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="38">
         <v>1</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="40"/>
+      <c r="G6" s="39"/>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1"/>
     <row r="8" spans="1:7" s="4" customFormat="1"/>
